--- a/gemini_mesaj_cevaplari.xlsx
+++ b/gemini_mesaj_cevaplari.xlsx
@@ -31,30 +31,28 @@
     <t>+90 553 542 12 42</t>
   </si>
   <si>
-    <t>["Merhaba,\nÖncelikle mağazanız hakkında bilgi almak istediğiniz için teşekkür ederiz. Mağazanızın hangi ürünleri içerdiğini belirtmişsiniz, ancak hangi konuda bilgi almak istediğinizi daha net ifade edebilirseniz, size daha iyi yardımcı olabilirim. Örneğin:\n*   *Çalışma saatlerimiz* hakkında bilgi almak istiyorsanız, ...\n*   *Ürünlerimizle ilgili detaylı bilgi* almak istiyorsanız, ...\n*   *Sipariş verme, iade veya değişim politikalarımız* hakkında bilgi almak istiyorsanız, ...\n*   *Mağazamızın konumu* hakkında bilgi almak istiyorsanız, ...\nLütfen sorunuzu daha detaylı belirtirseniz, size en kısa sürede ve doğru şekilde yardımcı olmaktan memnuniyet duyarım.\n25 Nisan'daki mesajınız için de özür dilerim. Gözden kaçmış olmalı. Lütfen o mesajınızdaki sorunuzu da tekrar iletin, hemen ilgileneceğim.\nİyi günler dilerim!", 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.']</t>
-  </si>
-  <si>
-    <t>['Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazamız genel satış yapar.', 'Isterseniz iletişime geçeriz.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Ben de ilgileniyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Yok', 'Merhaba,\nİletişime geçtiğiniz için teşekkür ederiz. Mağazanızın genel satış yaptığını ve ilgilenenler olduğunu anlıyorum.\n*Satışlarınızla ilgili ne tür bir konuda yardımcı olabiliriz?* Örneğin:\n*   *Ürünleriniz hakkında bilgi almak mı istiyorsunuz?*\n*   *Toptan satış imkanları hakkında mı bilgi almak istiyorsunuz?*\n*   *Ürünlerinizi platformumuzda sergilemek mi istiyorsunuz?*\n*   *Başka bir konuda mı yardımcı olabiliriz?*\nLütfen bize daha fazla detay verirseniz, size en iyi şekilde yardımcı olabiliriz.\nİyi günler dilerim.', 'Bu', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.']</t>
+    <t>["Merhaba,\nÖncelikle mağazanız hakkında bilgi almak istediğiniz için teşekkür ederiz. Mağazanızın hangi ürünleri içerdiğini belirtmişsiniz, ancak hangi konuda bilgi almak istediğinizi daha net ifade edebilirseniz, size daha iyi yardımcı olabilirim. Örneğin:\n*   *Çalışma saatlerimiz* hakkında bilgi almak istiyorsanız, ...\n*   *Ürünlerimizle ilgili detaylı bilgi* almak istiyorsanız, ...\n*   *Sipariş verme, iade veya değişim politikalarımız* hakkında bilgi almak istiyorsanız, ...\n*   *Mağazamızın konumu* hakkında bilgi almak istiyorsanız, ...\nLütfen sorunuzu daha detaylı belirtirseniz, size en kısa sürede ve doğru şekilde yardımcı olmaktan memnuniyet duyarım.\n25 Nisan'daki mesajınız için de özür dilerim. Gözden kaçmış olmalı. Lütfen o mesajınızdaki sorunuzu da tekrar iletin, hemen ilgileneceğim.\nİyi günler dilerim!", "Merhaba,\nÖncelikle mağazanız hakkında bilgi almak istediğiniz için teşekkür ederiz. Mağazanızın hangi ürünleri içerdiğini belirtmişsiniz, ancak hangi konuda bilgi almak istediğinizi daha net ifade edebilirseniz, size daha iyi yardımcı olabilirim. Örneğin:\n*   *Çalışma saatlerimiz* hakkında bilgi almak istiyorsanız, ...\n*   *Ürünlerimizle ilgili detaylı bilgi* almak istiyorsanız, ...\n*   *Sipariş verme, iade veya değişim politikalarımız* hakkında bilgi almak istiyorsanız, ...\n*   *Mağazamızın konumu* hakkında bilgi almak istiyorsanız, ...\nLütfen sorunuzu daha detaylı belirtirseniz, size en kısa sürede ve doğru şekilde yardımcı olmaktan memnuniyet duyarım.\n25 Nisan'daki mesajınız için de özür dilerim. Gözden kaçmış olmalı. Lütfen o mesajınızdaki sorunuzu da tekrar iletin, hemen ilgileneceğim.\nİyi günler dilerim!", 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.']</t>
+  </si>
+  <si>
+    <t>['Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazamız genel satış yapar.', 'Isterseniz iletişime geçeriz.', 'Merhaba, mağazamız genel satış yapar.', 'Isterseniz iletişime geçeriz.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Ben de ilgileniyorum.', 'Ben de ilgileniyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Yok', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Yok', 'Merhaba,\nİletişime geçtiğiniz için teşekkür ederiz. Mağazanızın genel satış yaptığını ve ilgilenenler olduğunu anlıyorum.\n*Satışlarınızla ilgili ne tür bir konuda yardımcı olabiliriz?* Örneğin:\n*   *Ürünleriniz hakkında bilgi almak mı istiyorsunuz?*\n*   *Toptan satış imkanları hakkında mı bilgi almak istiyorsunuz?*\n*   *Ürünlerinizi platformumuzda sergilemek mi istiyorsunuz?*\n*   *Başka bir konuda mı yardımcı olabiliriz?*\nLütfen bize daha fazla detay verirseniz, size en iyi şekilde yardımcı olabiliriz.\nİyi günler dilerim.', 'Merhaba,\nİletişime geçtiğiniz için teşekkür ederiz. Mağazanızın genel satış yaptığını ve ilgilenenler olduğunu anlıyorum.\n*Satışlarınızla ilgili ne tür bir konuda yardımcı olabiliriz?* Örneğin:\n*   *Ürünleriniz hakkında bilgi almak mı istiyorsunuz?*\n*   *Toptan satış imkanları hakkında mı bilgi almak istiyorsunuz?*\n*   *Ürünlerinizi platformumuzda sergilemek mi istiyorsunuz?*\n*   *Başka bir konuda mı yardımcı olabiliriz?*\nLütfen bize daha fazla detay verirseniz, size en iyi şekilde yardımcı olabiliriz.\nİyi günler dilerim.', 'Bu', 'Bu', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.', 'Merhaba, mağazanız hakkında bilgi almak istiyorum.']</t>
   </si>
   <si>
     <t xml:space="preserve">Merhaba,
-Art arda gönderdiğiniz mesajlar için teşekkür ederiz. Anladığım kadarıyla mağazamız hakkında genel bilgi almak istiyorsunuz. Size en doğru ve kapsamlı bilgiyi verebilmek için, lütfen biraz daha spesifik olarak hangi konuda bilgi almak istediğinizi belirtir misiniz?
-Örneğin:
-*   **Mağazamızın hangi ürünleri sattığını öğrenmek mi istiyorsunuz?** Belirli bir ürün kategorisine mi ilgi duyuyorsunuz?
-*   **Mağazamızın çalışma saatleri ve konumu hakkında mı bilgi almak istiyorsunuz?**
-*   **Sipariş verme, kargo, iade veya değişim süreçlerimizle ilgili bilgiye mi ihtiyacınız var?**
-*   **Mevcut kampanyalarımız veya indirimlerimiz hakkında mı bilgi almak istiyorsunuz?**
-Ne kadar detaylı bilgi verirseniz, size o kadar hızlı ve etkili bir şekilde yardımcı olabilirim. İlginiz için teşekkür eder, cevabınızı beklerim.
-İyi günler dilerim!
+Mağazamız hakkında bilgi almak istediğiniz için teşekkür ederiz. Anlıyorum, mağazamız hakkında genel bir bilgi almak istiyorsunuz. Size yardımcı olmaktan memnuniyet duyarım.
+Mağazamız hakkında en çok merak edilen konular genellikle şunlardır:
+*   **Ürün Çeşitlerimiz:** Mağazamızda ne tür ürünler bulabilirsiniz? (Örneğin, giyim, elektronik, ev eşyaları, vb.)
+*   **Çalışma Saatlerimiz:** Mağazamız hangi gün ve saatlerde hizmet vermektedir?
+*   **Konumumuz:** Mağazamız nerede bulunmaktadır? (Adres bilgisi ve ulaşım imkanları)
+*   **Sipariş, İade ve Değişim Koşulları:** Sipariş nasıl verebilirim, iade veya değişim yapmak istersem nasıl bir süreç izlemeliyim?
+*   **Güncel Kampanyalar ve İndirimler:** Şu anda geçerli olan indirimler veya kampanyalar nelerdir?
+Bu konular dışında, mağazamızla ilgili öğrenmek istediğiniz başka özel bir konu varsa lütfen çekinmeden belirtin. Size en kapsamlı ve doğru bilgiyi sağlamak için buradayım.
 </t>
   </si>
   <si>
     <t xml:space="preserve">Merhaba,
-Öncelikle yoğun ilginiz için teşekkür ederiz! Mağazamız hakkında bilgi almak istediğinizi görüyorum.
-Sanırım burada bir yanlış anlaşılma var. Siz bizim mağazamız hakkında bilgi almak istiyorsunuz. Biz ise size mağazanızla ilgili yardımcı olmak için buradayız.
-**Siz mağaza sahibi misiniz? Eğer öyleyse, mağazanızın ne tür ürünler sattığını ve size nasıl yardımcı olabileceğimizi belirtirseniz sevinirim.**
-Eğer bir ürün arıyorsanız, lütfen ne tür bir ürünle ilgilendiğinizi ve sizin için ne gibi seçenekler sunabileceğimizi bize bildirin. Size yardımcı olmaktan mutluluk duyarız.
-Teşekkürler!
+Mağazamızla ilgilendiğiniz için teşekkür ederiz! Gördüğümüz kadarıyla mağazamız hakkında genel bilgi almak istiyorsunuz. 
+Mağazamız genel satış yapıyor. Size nasıl yardımcı olabileceğimiz konusunda daha fazla bilgi alabilir miyiz? Örneğin, hangi ürün kategorileriyle ilgileniyorsunuz? Belirli bir ürün ya da hizmet mi arıyorsunuz? Ya da aklınızdaki başka bir soru mu var?
+Size en doğru ve hızlı şekilde yardımcı olabilmemiz için lütfen biraz daha detay verir misiniz?
 </t>
   </si>
 </sst>
